--- a/data/excel/RecruitmentNotice.xlsx
+++ b/data/excel/RecruitmentNotice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,87 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>(주)디셈버앤컴퍼니</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>핀트(fint) 프론트엔드(front-end) 개발자</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290918</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>react,typescript,jotai,emotion,webpack,babel,vue,angular</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>(주)버즈빌</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[광고 추천팀] 백엔드 개발자 (Engineering Manager, Team Lead)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288726</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>go,python,mysql,dynamodb,redis,elasticsearch,kafka,kubernetes,grpc,apache,prometheus,kubernetes,spinnaker,datadog,grafana,prometheus,loki,aws,gcp</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>(주)버즈빌</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[광고 운영 플랫폼팀] 프론트 엔드 개발자 (경력 3년 이상)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287613</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>vue,react,typescript,jest,angular,jest,kubernetes,prometheus,datadog,grafana,prometheus,loki,sentry,kubernetes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/RecruitmentNotice.xlsx
+++ b/data/excel/RecruitmentNotice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,60 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(주)디셈버앤컴퍼니</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>핀트(fint) 프론트엔드(front-end) 개발자</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290918</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>react,typescript,jotai,emotion,webpack,babel,vue,angular</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(주)버즈빌</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[광고 추천팀] 백엔드 개발자 (Engineering Manager, Team Lead)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288726</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>go,python,mysql,dynamodb,redis,elasticsearch,kafka,kubernetes,grpc,apache,prometheus,kubernetes,spinnaker,datadog,grafana,prometheus,loki,aws,gcp</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/RecruitmentNotice.xlsx
+++ b/data/excel/RecruitmentNotice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,83 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(주)코그넷나인</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>프론트엔드개발자</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290844</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>react</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>(주)앤씨앤</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Embedded Application 개발자 채용</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290660</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>(주)유진로봇</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>개발본부 AMS팀 백엔드(Back-end) 개발자</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1269944</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>javascript</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/RecruitmentNotice.xlsx
+++ b/data/excel/RecruitmentNotice.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,17 +652,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(주)코그넷나인</t>
+          <t>(주)지란지교데이터</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>프론트엔드개발자</t>
+          <t>[판교] MacOS Application 개발자 채용 (7년 이상)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290844</t>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291279</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -672,29 +672,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>react</t>
+          <t>swift</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(주)앤씨앤</t>
+          <t>(주)제니엘</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Embedded Application 개발자 채용</t>
+          <t>[제니엘그룹] 본사직 PC/OA 채용</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290660</t>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291277</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>경력</t>
+          <t>경력무관</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -702,27 +702,7378 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>(주)벙커키즈</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tech - AI Backend Engineer (LLM &amp; Diffusion)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291268</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(주)벙커키즈</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tech - Backend Engineer</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291267</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>python,django,docker,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>(주)라포랩스</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[라포랩스] Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291264</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>python,docker,flask,redis,kubernetes,docker,kubernetes,gcp,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(주)버즈빌</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[Ad Expansion팀] 백엔드 개발자 (경력 3년 이상)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287688</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>python,django,mysql,dynamodb,kubernetes,redis,prometheus,kubernetes,spinnaker,datadog,grafana,prometheus,loki,sentry,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>(주)버즈빌</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[광고 운영 플랫폼팀] 프론트 엔드 개발자 (경력 3년 이상)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287613</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>vue,react,typescript,jest,angular,jest,kubernetes,prometheus,datadog,grafana,prometheus,loki,sentry,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>(주)버즈빌</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DevOps 엔지니어 (경력 3년 이상)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290553</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>kubernetes,prometheus,kubernetes,spinnaker,datadog,prometheus,aws,istio,ec2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(주)버즈빌</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[광고 추천팀] 백엔드 개발자 (Engineering Manager, Team Lead)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288726</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>go,python,mysql,dynamodb,redis,elasticsearch,kafka,kubernetes,grpc,apache,prometheus,kubernetes,spinnaker,datadog,grafana,prometheus,loki,aws,gcp</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>(주)디셈버앤컴퍼니</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>핀트(fint) 프론트엔드(front-end) 개발자</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290918</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>react,typescript,jotai,emotion,webpack,babel,vue,angular</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>(주)루티너리</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[Dev] RN Developer</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1283031</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>react,typescript,mobx,zustand,firebase</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(주)앤씨앤</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Kernel Device Driver 및 BSP 개발자 채용</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291090</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(주)웅진</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>클라우드 모니터링 솔루션운영 및 유지보수</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291054</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>java,kubernetes,java,azure,aws,jenkins,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(주)웅진</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SAP Public Cloud 컨설턴트</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291048</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>azure,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>(주)지란지교소프트</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[판교] 풀스택 엔지니어 (PHP, JavaScript)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291100</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>javascript,php,laravel,mysql,postgresql,java,docker,java,aws,azure,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>(주)지란지교소프트</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[판교] macOS 클라이언트 개발자 (C++)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291099</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>swift</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(주)웅진</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RPA(업무자동화) Developer</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291053</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>azure,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(주)브레이브모바일</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mobile App Engineer (React Native)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287485</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>react,typescript,jest,javascript,jest</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(주)브레이브모바일</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Front-end Engineer</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287482</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>vue,redux,react,angular,typescript,webpack,rollup</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>(주)엠지알브이</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Backend Engineer Lead</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290554</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>java,kotlin,spring,hibernate,redis,kubernetes,nginx,docker,python,java,kotlin,prometheus,aws,kubernetes,istio,nginx,docker,jenkins,prometheus,grafana,datadog</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>(주)뤼이드</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[Riiid] FE Engineer (4년 이상)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289221</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>javascript,react,flutter,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>(주)인투씨엔에스</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[경력] 프론트엔드 개발자 (2년 이상)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290903</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>javascript,react</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(주)벙커키즈</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Tech - Frontend Lead</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>zustand,recoil,react,emotion,vitest</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(주)벙커키즈</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Tech - Frontend Engineer</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291001</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>zustand,recoil,react,emotion,vitest</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>(주)아하랩스</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288081</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>(주)에너닷</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>프론트엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290908</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>react,javascript,typescript,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>(주)데이터메이커</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>백엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1279196</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>less,postgresql,django,mysql,spring,python</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>(주)데이터메이커</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>프론트엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1279195</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>less,tailwindcss,vue,webpack,babel,javascript,react,angular</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>코코네엔지니어링코리아(주)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Server Engineer</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291060</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>javascript,java,kotlin,go,mongodb,nginx,mariadb,redis,spring,python,java,kotlin,aws,gcp,azure,nginx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>리디(주)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Senior Backend Engineer</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288137</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>typescript,postgresql</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>니어브레인(주)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>백엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290845</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>typescript,java,spring,mysql,dynamodb,junit,python,fastapi,java,junit,rds,localstack,aws,terraform</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>아카라라이프(주)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AIoT 플랫폼 앱/서버 기술지원 (7년~15년)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1286824</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>openapi,java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>(주)팬딩</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>프론트엔드 주니어 개발자 (2년차 이상)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289102</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>vue</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>(주)팬딩</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>React Native 리드 개발자 (5년차 이상)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289098</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>react</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>(주)팬딩</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>React Native 주니어 개발자 (2년차 이상)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289097</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>react</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>(주)팬딩</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>백엔드 주니어 개발자 (2년차 이상)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289096</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>php,aws,azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>(유)미소</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Salesforce Developer</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290493</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>(주)로그프레소</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SIEM 기술지원 엔지니어</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1284359</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>aws,azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>(주)로그프레소</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SIEM 구축 엔지니어</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1284845</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>aws,azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>(주)마들렌메모리</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DevOps Engineer(3년 이상)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291018</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>docker,kubernetes,java,spring,java,docker,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>(주)크리에이트립</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>백엔드 파트 리더</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1286841</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>graphql,typescript,mariadb,elasticsearch,graphql,grpc,typeorm,sequelize,mongoose,redis,aws,terraform,sentry</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>(주)씨브이네트</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Back-End 서버 개발</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1274603</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>java,spring,mysql,rabbitmq,kafka,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>(주)데이터라이즈</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Frontend Engineer</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1281588</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>typescript,react,vue,angular,redux</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>(주)콜로세움코퍼레이션</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Frontend Engineer(Lead)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1281434</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>javascript,react,typescript,storybook,emotion</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>(주)콜로세움코퍼레이션</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Backend Engineer(5년 이상)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1284267</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>java,kotlin,spring,mysql,docker,kubernetes,java,kotlin,aws,rds,jenkins,docker,datadog,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>(주)와탭랩스</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>프론트엔드 개발</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290014</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>react</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>(주)데일리샷</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>백엔드 개발자(경력)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287945</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>django,python,redis,nginx,mysql,mongodb,sentry,nginx,aws,ec2,rds,s3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>리디(주)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[디리토] Full Stack Software Engineer</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288610</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>typescript,react,mysql,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>스콥정보통신(주)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>스콥정보통신(주) Pre-Sales 담당자 채용</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289853</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>emotion</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>스콥정보통신(주)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>어플리케이션 개발자 채용</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289724</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>emotion,vpn</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>(주)에이에프아이</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Devops 엔지니어 (팀원)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290369</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>javascript,python</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>(주)리브스메드</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[연구소 로봇] SW Engineer - 정보보안 SW (암호화 알고리즘)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289320</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>(주)지엔에이컴퍼니</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[플레이오] Python 백엔드/웹 개발자</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1283404</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>python,mysql,mongodb,fastapi,swagger,openapi,aws,s3,azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>스마트푸드네트웍스(주)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>식자재 커머스 백엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290372</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>kotlin,java,docker,mysql,postgresql,kotlin,java,docker,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>(주)디어유</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291067</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>docker,python,aws,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>(주)디어유</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>iOS 클라이언트 개발</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288799</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>swift</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>(주)바비톡</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Web Frontend Developer</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1285221</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>react,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>(주)와탭랩스</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>빌링시스템 개발자</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290015</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>react,spring,java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>(주)샵라이브코리아</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Software Engineer (Android / 안드로이드) - 3년 이상</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288850</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>java,kotlin,flutter,java,kotlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>(주)샵라이브코리아</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Software Engineer(iOS) - 3년 이상</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288851</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>swift,flutter</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>(주)델레오코리아</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Java Senior 개발자 (플랫폼개발팀)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290350</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>kafka,redis,java,spring,hibernate,java,aws,rds</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>리디(주)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SRE/DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288616</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>docker,kubernetes,aws,docker,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>리디(주)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Full Stack Software Engineer</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288611</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>typescript,mysql</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>리디(주)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[디리토] Backend Software Engineer</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288608</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>typescript,mysql</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>(주)시큐어로그</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>컨설팅사업본부 모의해킹/인프라진단/관리체계 경력</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1278029</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>(주)데이터메이커</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DevOps 개발자</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1273788</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>python,terraform,pulumi,ansible</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>(주)시나몬</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Backend Software Engineer(Senior)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288854</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>mongodb,prometheus,aws,gcp,azure,grafana,prometheus</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>스마트푸드네트웍스(주)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Backend 개발자</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289850</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>java,kotlin,spring,mysql,mongodb,java,kotlin,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>(주)샵라이브코리아</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289426</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>fastapi,flask,django,spring,docker,kubernetes,docker,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>(주)비욘드허니컴</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SW 개발 (Full-stack Developer)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287236</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>chef</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>(주)휴머스온</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>통합 메시징 및 AI 기반 서비스 개발자</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1285237</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>spring,redis,kafka,java,mysql,kubernetes,docker,java,aws,gcp,azure,kubernetes,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>(주)샵라이브코리아</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Software Engineer(Front-end) - 10년 이상</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1285962</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>typescript,react,vue,svelte,zustand,redux</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>(주)티오더</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Backend 개발자</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1286648</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>docker,aws,ec2,s3,rds,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>(주)그렙</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[프로그래머스] 교육솔루션팀 FE개발자(3년차 이상)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289786</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>vue</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>(주)그렙</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[프로그래머스] 교육솔루션팀 BE개발자(3년차 이상)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289781</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>리디(주)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Backend Software Engineer</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288600</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>typescript,mysql,go</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>(주)빌드코퍼레이션</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[개발] Backend Developer</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1283899</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>aws,azure,gcp</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>(주)디어유</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>메세징 서비스 개발자</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1285761</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>java,spring,python,django,flask,mysql,redis,elasticsearch,cassandra,java,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>이그레브</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>렌탈 서비스 개발 프로젝트 Flutter 개발자 (고급)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1280727</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>flutter</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>(주)그렙</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[교육솔루션팀] BE개발자</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287608</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>투이컨설팅(주)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>클라우드 컨설턴트 (경력직)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1284718</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>aws,azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>(주)에이비일팔공</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Backend Engineer - Data Pipeline</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288778</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>aws,gcp</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>(주)샵라이브코리아</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Software Engineer(Back-end) - 3년 이상</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1284246</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>java,spring,docker,kubernetes,java,aws,docker,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>아주큐엠에스(주)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>프론트엔드 개발</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1276720</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>javascript,react,vue</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>(주)클럼엘</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>정보보안 취약점 분석 및 CERT</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1283502</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>(주)브릭</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>프론트엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1280678</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>react,javascript,typescript,vue,angular,java,python,postgresql,docker,kubernetes,java,jenkins,docker,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>(주)씨씨알컨텐츠트리</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[채용] 웹커뮤니티 개발 프론트/백엔드 개발자 모집(경력)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1276940</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>storybook,graphql,graphql,django,mysql,kubernetes,docker,aws,kubernetes,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>파인더갭(주)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>정보보호/보안 전문가(3년 이상)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1282798</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>(주)씨드앤</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>프론트엔드 리드 개발자 (6년 이상)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288874</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>react,typescript,jotai,emotion,javascript</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>(주)버즈빌</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[광고 운영 플랫폼팀] 백엔드 개발자 (경력 3년 이상)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287047</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>python,go,mysql,redis,kafka,kubernetes,grpc,django,dynamodb,prometheus,kubernetes,datadog,grafana,prometheus,loki,aws,gcp</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>(주)버즈빌</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[Ad Expansion팀] 프론트 엔드 개발자 (경력 3년 이상)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287298</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>react,jest,vue,typescript,jest,datadog,sentry,spinnaker,loki</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>(주)버즈빌</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[광고 추천팀] 백엔드 개발자 (경력 3년 이상)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288722</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>go,python,mysql,dynamodb,redis,elasticsearch,kafka,kubernetes,grpc,apache,prometheus,kubernetes,spinnaker,datadog,grafana,prometheus,loki,aws,gcp</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>(주)씨드앤</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>데이터 엔지니어 (3년 이상)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288096</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>apache,kafka,java,java,aws,azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>오엠티아이코리아(주)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[신입] ASP.NET개발자</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290790</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>(주)윌로그</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[윌로그] 백엔드 개발자_Node.js, NestJS(5년 이상)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290359</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>typescript,graphql,graphql,docker,aws,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>(주)닥터다이어리</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Android 개발자(3년차 이상)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290507</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>kotlin,kotlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>(주)코그넷나인</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>프론트엔드개발자</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290844</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>react</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>(주)앤씨앤</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Embedded Application 개발자 채용</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290660</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
           <t>(주)유진로봇</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>개발본부 AMS팀 백엔드(Back-end) 개발자</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1269944</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>경력</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>javascript</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>(유)미소</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Back-end Developer(5년이상)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289651</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>typescript,react,jest,webpack,storybook,php,docker,jest,express,koa,fastify,nginx,kubernetes,dynamodb,mongodb,python,aws,docker,firebase,nginx,terraform,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>(주)지란지교소프트</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[대전] 윈도우/macOS 클라이언트 개발자</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291097</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>(주)코그넷나인</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Technical Architect</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290324</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>docker,kubernetes,aws,gcp,azure,docker,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>페이워크(주)</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ReactNative/React 프론트 개발자</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1282208</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>react,typescript,javascript,redux,zustand,webpack,flutter,fastlane</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>(주)아이넥스코퍼레이션</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>의료 AI 영상분야 개발자 채용</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290801</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>(주)에이아이트릭스</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Sr. Backend Engineer</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287262</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>python,mysql,mongodb,fastapi,docker,docker,aws,gcp,azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>(주)에너닷</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>백엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290909</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>typescript,typeorm,docker,aws,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>(주)에이아이지먼트</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SaaS향 웹 기반 솔루션 관련 백엔드(Back-End)/서버 개발 - 5년 이상</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1285610</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>typescript,python,fastapi,express,mongodb,redis,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>(주)팬딩</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>백엔드 리드 개발자 (5년차 이상)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289101</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>php,aws,azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>(주)팬딩</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>프론트엔드 리드 개발자 (5년차 이상)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289099</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>vue</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>아주큐엠에스(주)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MS Power Platform 개발자</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290323</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>(주)패스트뷰</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>백엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288733</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>kotlin,spring,hibernate,mysql,redis,python,elasticsearch,java,kotlin,java,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>(주)크리에이트립</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>시니어 프론트엔드 엔지니어</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1286838</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>typescript,graphql,react,vite,redux,recoil,storybook,graphql,docker,aws,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>(주)브레이브모바일</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Sr. Front-end Engineer</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287490</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>vue,redux,react,angular,typescript,webpack,rollup</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>(주)데이터라이즈</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Backend Engineer(6년 ~ 10년)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1284696</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>javascript,python,fastapi,kotlin,spring,docker,kubernetes,java,kotlin,java,aws,docker,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>(주)와탭랩스</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>데브옵스 엔지니어</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290011</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>java,elasticsearch,java,aws,azure,datadog,pulumi,gcp</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>리디(주)</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>[디리토] Frontend Software Engineer</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288609</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>react,javascript,typescript,express,mysql,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>(주)티피씨인터넷</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>안드로이드 개발자</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289479</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>kotlin,kotlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>(주)오픈소스컨설팅</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>클라우드 기술지원 엔지니어 (Cloud Specialist)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290708</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>kubernetes,python,docker,kubernetes,helm,ansible,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>(주)아하랩스</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Rust Server 개발자</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289207</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>mongodb</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>(주)클럼엘</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>[6년 이상] 시니어 Software Engineer (Frontend)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1270147</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>webassembly,react,spring,java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>(주)클럼엘</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>신입 Software Engineer (Product)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1270145</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>신입</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>(주)클럼엘</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>[6년 이상] 시니어 Software Engineer (Data)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1270151</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>(주)클럼엘</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>[2년 이상] 주니어 Software Engineer (Frontend)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1270148</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>webassembly,react,spring,java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>(주)클럼엘</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>신입 Software Engineer (Frontend)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1270149</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>신입</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>webassembly,react,spring,java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>(주)클럼엘</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>신입 Software Engineer (Data)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1270153</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>(주)클럼엘</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>[2년 이상] 주니어 Software Engineer (Data)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1270152</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>(주)에이비일팔공</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288779</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>python,java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>코코네엔지니어링코리아(주)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>React Native Engineer</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289969</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>react,typescript,fastlane,jenkins,firebase</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>(주)스카이월드와이드</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>프론트엔드 개발자 (팀원급)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288642</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>(주)스카이월드와이드</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>백엔드 개발자 (리더급)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288639</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>java,python,kubernetes,docker,java,jenkins,kubernetes,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>(주)이너버스</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>IT보안 - SIEM 솔루션 기술 엔지니어 (신입)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1274606</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>mysql,kafka</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>아주큐엠에스(주)</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Java 개발자</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287927</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>javascript,spring</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>슈어소프트테크(주)</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>C# 개발자 (네트워크기술팀) / 전문연구요원 우대</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289941</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>(주)넥스트랩</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>임베디드 리눅스 S/W 개발자</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289049</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>(주)델레오코리아</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>[플랫폼개발팀] Java 주니어 개발자</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290349</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>kafka,redis,spring,rabbitmq,aws,ec2,s3,rds</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>(주)코그넷나인</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Java 개발자(책임급)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289783</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>javascript,spring</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>(주)시나몬</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Full-stack Software Engineer(Internal Tools)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288853</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>docker,kubernetes,prometheus,docker,kubernetes,aws,gcp,azure,grafana,prometheus</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>스마트푸드네트웍스(주)</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Frontend 개발자</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289851</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>react,jotai,tailwindcss,typescript,webpack</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>(주)쓰리아이</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>[정규직] MLOps(머신러닝 관련 연구개발) Engineer 채용</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288035</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>docker,kubernetes,python,kafka,prometheus,docker,aws,jenkins,kubernetes,terraform,ansible,grafana,prometheus</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>(주)스카이월드와이드</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>백엔드 개발자 (팀원급)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288640</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>java,python,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>(주)샵라이브코리아</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Software Engineer(Back-end) - 10년 이상</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1285961</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>java,spring,kubernetes,docker,java,aws,kubernetes,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>(주)피닉스다트</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>리눅스 시스템개발자</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1285948</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>django,aws,ec2,rds</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>(주)한국그린데이터</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>백엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1277752</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>python,fastapi,docker,aws,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>(주)버즈니</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>AI 백엔드 엔지니어</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1269767</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>kubernetes,kafka,fastapi,python,docker,elasticsearch,kubernetes,docker,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>(주)로이드케이</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>빅데이터 솔루션 SaaS 백엔드 개발자 채용(경력)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289762</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>javascript,react,java,kubernetes,docker,java,aws,gcp,azure,terraform,ansible,helm,kubernetes,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>(주)버즈빌</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>[Product Backend 팀] 백엔드 개발자 (경력 3년 이상)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290552</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>go,python,mysql,dynamodb,redis,elasticsearch,kafka,kubernetes,grpc,prometheus,kubernetes,datadog,grafana,prometheus,loki,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>(주)씨드앤</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>백엔드 개발자 (3년 이상~5년 미만)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288200</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>javascript,typescript,jest,java,express,docker,kubernetes,mysql,dynamodb,apache,kafka,swagger,jest,mocha,java,aws,azure,docker,kubernetes,jenkins</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>(주)지나인</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>엔지니어링팀 팀장(Software Engineering Lead)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291148</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>react,typescript,spring,java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>(주)블록체인글로벌</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>시니어 백엔드 개발자(과장급/7년이상)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290331</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>java,kotlin,spring,kafka,docker,java,kotlin,aws,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>(주)두들린</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Search Engineer - 5년 이상</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288536</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>elasticsearch,kotlin,java,spring,mysql,mongodb,kafka,kubernetes,kotlin,java,aws,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>(주)넵튠</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>플랫폼개발팀 백엔드개발자 채용</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290272</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>신입</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>mysql,redis,dynamodb,docker,docker,aws,gcp,terraform</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>(주)렛유인에듀</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>PHP 개발자</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291201</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>javascript,php,mysql</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>(주)앤씨앤</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Embedded Middleware 개발자</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291092</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>(주)웅진</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>로우코드 웹 기반 시스템 개발/설계</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291046</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>java,java,azure,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>(주)윌로그</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>[윌로그] 백엔드 개발자_Node.js, NestJS(10년 이상)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288401</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>typescript,graphql,graphql,docker,aws,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>잡플래닛</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Software Architect</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287811</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>mysql,mariadb,postgresql,docker,kubernetes,aws,docker,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>(주)로민</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>AI 백엔드 엔지니어</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290740</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>python,fastapi,postgresql,redis,docker,kubernetes,aws,s3,docker,kubernetes,istio,helm</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>(주)플래티어</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>[ECS사업부문] 이커머스 플랫폼 개발자 (주임급 이상)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1284965</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>javascript,react,vue,java,mysql,dynamodb,spring,swagger,java,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>(주)보스반도체</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>SOC RTL design Engineer</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1275348</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>python,java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>슈어소프트테크(주)</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>AI 테스트 도구 개발 / 전문연구요원 우대</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290487</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>fastapi,flask</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>(주)오픈소스컨설팅</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>아틀라시안 개발</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288948</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>javascript,angular,react,vue,java,mysql,spring,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>코코네엔지니어링코리아(주)</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Unity Client Engineer</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291059</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>javascript,python,java,java,maya,blender,unity,hlsl,jenkins</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>(주)클럼엘</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>[6년 이상] 시니어 Software Engineer (Product)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1270143</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>(주)스카이월드와이드</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>프론트엔드 개발자 (리더급)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288641</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>(주)라텔앤드파트너즈</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">시스템 엔지니어 </t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290852</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>terraform,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>(주)리브스메드</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>[연구소 전자] SW Engineer - 어플리케이션 (주임~과장급)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289756</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>(주)데이터메이커</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>서버 및 인프라 개발자</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1273787</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>python,terraform,pulumi,ansible</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>(주)시나몬</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Unreal Engine Developer</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288855</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>(주)파더스랩</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>프론트엔드 개발자(5년이상)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288398</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>react,vue,angular,javascript,typescript</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>(주)피처링</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>백엔드 개발자 채용</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1281091</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>python,aws,gcp,azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SOOP</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Global 서비스 Back-end 개발 (NestJS)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1277134</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>javascript,typescript,express,kafka,redis</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>(주)브릭</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>백엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1280679</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>react,javascript,typescript,vue,angular,java,python,postgresql,docker,kubernetes,java,jenkins,docker,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>(주)워트인텔리전스</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>프론트엔드 개발자 (3년 이상)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291112</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>react,typescript,room</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>오엠티아이코리아(주)</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ASP.NET 중급개발자</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290789</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>(주)마카롱팩토리</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>프론트엔드 개발 (3년 이상)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290933</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>react,typescript,javascript,redux,recoil</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>(주)에어스메디컬</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Salesforce Developer</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290744</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>(주)데일리펀딩</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Front-end 개발자</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290121</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>react,typescript,sass</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>(주)엔코위더스</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Software Engineer 백엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288965</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>mysql,mongodb,dynamodb,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>(주)워트인텔리전스</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>검색엔진 엔지니어 (3년 이상)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1286293</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>elasticsearch,python,java,java,room</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>알테어엔지니어링(주)</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PollEx Product Manager </t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289222</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>(주)센트비</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Backend Engineer (Java/Kotlin)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289333</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>java,kotlin,spring,docker,mysql,postgresql,kafka,kubernetes,java,kotlin,aws,docker,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>(주)와탭랩스</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>백엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290017</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>(주)와탭랩스</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>[장애인전형] 백엔드 개발</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290012</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>리디(주)</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>React Native Engineer</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288615</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>(주)리브애니웨어</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>백엔드 엔지니어</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289683</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>kotlin,spring,kafka,kotlin,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>(주)샵라이브코리아</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Software Engineer(Front-end) - 3년 이상</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1284245</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>typescript,react,vue,svelte,zustand,redux</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>(주)에잇퍼센트</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>코어뱅킹 개발자</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1280265</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>(주)두들린</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Backend Engineer - 5년 이상</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291206</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>java,kotlin,spring,mysql,mongodb,redis,kubernetes,kafka,java,kotlin,aws,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>(주)아하랩스</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>AI Researcher</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289206</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>(주)데일리펀딩</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Back-end 개발자</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290122</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>python,django,mysql</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>(주)에너닷</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>풀스텍 개발자</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290910</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>typescript,docker,typeorm,aws,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>슈어소프트테크(주)</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>[분석엔진팀] 소스코드 분석엔진 개발 / 전문연구요원 우대</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287034</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>java,kotlin,python,java,kotlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>(주)테사</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>[서비스 및 솔루션 개발] 백엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287937</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>react,docker,kubernetes,docker,kubernetes,aws,gcp,azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>(주)모니모니</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>백엔드 개발자(5년 이상)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287953</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>javascript,graphql,graphql,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>(주)마카롱팩토리</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>iOS 개발 (5년 이상)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290928</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>uikit,quick,nimble,fastlane</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>(주)센트비</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Backend Engineer (Go)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289201</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>gin,grpc,postgresql,redis,docker,java,spring,java,aws,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>(주)넵튠</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>엔플라이스튜디오 클라이언트 개발자 채용</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290270</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>unity</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>신성통상(주)</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>신성통상(주) WEB 개발자 경력직 채용</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288906</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>java,postgresql,spring,java,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>(주)핌아시아</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>프론트엔드 개발리드 (10년 이상)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287558</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>react,javascript,angular,vue,flutter,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>(주)세나클</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Windows Client(C# WPF) 개발</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287580</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>(주)에잇퍼센트</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>파이썬(Python) 개발자</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1276405</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>(주)씨드앤</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>백엔드 개발자 (5년 이상~10년 미만)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289448</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>javascript,typescript,jest,java,express,docker,kubernetes,mysql,dynamodb,apache,kafka,swagger,jest,mocha,java,aws,azure,docker,kubernetes,jenkins</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>(주)노타</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>[America Tech] AI Engineer</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290628</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>(주)워트인텔리전스</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>AI 엔지니어 (전문연구요원 신규/편입 가능)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288118</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>python,java,java,room</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>(주)시나몬</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Animation TA</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290409</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>python,maya</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>(주)데이터메이커</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>웹 그래픽(F/E) 개발자</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1273791</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>webpack,javascript,vue,react,angular</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>(주)레인보우로보틱스</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>기업부설연구소 SI 비전 기능 개발 인력</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289438</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>아카라라이프(주)</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>AIoT앱/디바이스 기술지원 (신입~5년/중국어 가능자)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290303</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>(주)클럼엘</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>[2년 이상] 주니어 Software Engineer (Product)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1270144</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>이그레브</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>대기업 커머스 재구축 프로젝트 개발(ReactJS, NextJS, JAVA)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1280729</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>java,spring,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>리디(주)</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Mobile Engineer</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288614</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>react</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>(주)링글잉글리시에듀케이션서비스</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>[전환형 인턴] Software Engineer - Backend</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289266</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>신입</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>python,django,flask,java,spring,kubernetes,java,aws,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>(주)버즈빌</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[광고 제품팀] 백엔드 개발자 (경력 3년 이상) </t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289463</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>python,django,mysql,dynamodb,kubernetes,redis,prometheus,kubernetes,spinnaker,datadog,grafana,prometheus,loki,sentry,aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>(주)지란지교소프트</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>[판교] 백엔드 Engineer (Kotlin)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291118</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>신입</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>kotlin,java,mysql,postgresql,docker,kotlin,java,aws,azure,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>(주)반장창고</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Web &amp; Mobile App Front-end 개발자(신입~1년 이상)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1286849</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>react</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>(주)파더스랩</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>안드로이드 앱개발 (3년이상)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289648</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>(주)케이아이엔엑스</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2025 KINX 경력직 채용_IT 기술 컨설팅</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290829</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>aws,azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>(주)화이트큐브</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>[챌린저스] 프론트엔드 개발자 (3년 이상)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291032</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>react</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>슈퍼센트(주)</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>프론트엔드 개발자 (3년 이상)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291269</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>react,redux,javascript,typescript,docker,gcp,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>(주)뷰노</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>생체신호 BE 개발자</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290796</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>(주)뷰노</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>생체신호 FE Senior 개발자</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290795</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>angular,vue,javascript,typescript,react</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>(주)뷰노</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>생체신호 FE Leader 개발자</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290794</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>angular,vue,javascript,typescript,react</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>콘센트릭스서비스코리아(유)</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>[Catalyst] SAP CC(Hybris) 기반 BA / 개발자</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289921</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>graphql,graphql,java,spring,kubernetes,docker,java,aws,azure,gcp,kubernetes,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>(주)엠지데이터시스템</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>(정보시스템 통합유지보수)  네트웍 관제 및 운영지원_계약직  (사업장)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290776</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>(주)에프앤에프</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>정보보안팀 컴플라이언스 경력직 채용 (5년 이상)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290746</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>(주)미리디</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>[미리캔버스] AI 플랫폼 엔지니어 (MLOps)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289923</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>(주)키다리스튜디오</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Vue/React 개발자</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290363</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>vue,react</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>(주)이지식스</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Android Engineer (Intermediate) </t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289721</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>(주)화이트큐브</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>[챌린저스] 백엔드 개발자 (병역특례_산업기능요원)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289113</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>react,typescript,zustand,tailwindcss,go,java,kotlin,mysql,postgresql,redis,docker,java,kotlin,aws,firebase,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>(주)이지식스</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>[TADA] Backend Engineer</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1286863</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>grpc,docker,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>(주)이지식스</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iOS Engineer (Intermediate) </t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289649</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>swift</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>(주)아키스케치</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>AI / Backend Engineer</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289632</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>javascript,python,kotlin,fastapi,flask,express,room,kotlin,aws,gcp</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>번개장터(주)</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Backend Software Engineer</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1284149</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>java,kotlin,spring,docker,kubernetes,java,kotlin,ec2,rds,s3,aws,docker,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>(주)더블티</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>(주)더블티 2025년 상반기 채용 - Mobile App 개발자</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288013</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>java,kotlin,swift,flutter,java,kotlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>(주)이스트소프트</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>[ESTsoft] iOS 개발자 (1년 이상)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289488</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>swiftui,swift,uikit</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>(주)와이즈넛</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>솔루션개발직 경력사원 채용</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1281350</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>슈퍼센트(주)</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>게임 클라이언트 개발자 (7년 이상)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289154</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>unity</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>슈퍼센트(주)</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>게임 클라이언트 개발자 (3년 이상)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289185</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>unity</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>슈퍼센트(주)</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>게임 클라이언트 개발자 (신입)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289186</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>unity</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>(주)피클플러스</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>프론트엔드 주니어 개발자</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290256</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>typescript,react,javascript,vue</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>(주)뷰노</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Windows 개발자</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289593</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>flask,fastapi</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>(주)프리윌린</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>개발팀 Tech Innovation Working Group 백엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288462</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>java,spring,kotlin,python,kubernetes,java,kotlin,aws,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>(주)프리윌린</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>개발팀 Tech Innovation Working Group 풀스택 개발자</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288461</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>react,typescript,vue,angular,kotlin,java,spring,python,kubernetes,kotlin,java,aws,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>한국전자인증(주)</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>CA/RA 개발자 모집 (경력 7년~10년)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1283105</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>mariadb,java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>한국전자인증(주)</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>[서버 개발] CA/RA 서버 개발자 모집</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1283108</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>mariadb,java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>누리미디어(주)</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>[개발운영] 백엔드 개발자 (경력)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289870</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>spring,java,java,aws,gcp</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>메가존클라우드(주)</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>24시간 관제운영</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288838</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>(주)케이아이엔엑스</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2025 KINX 채용연계형 인턴_IT 기술 컨설팅</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290823</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>신입</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>aws,azure,gcp</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>(주)화이트큐브</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>[챌린저스] 백엔드 개발자 (자동차 구독 신사업)</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288517</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>go,java,kotlin,java,kotlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>(주)화이트큐브</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>[챌린저스] 백엔드 개발자 (3년 이상)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1279367</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>go,java,kotlin,mysql,postgresql,redis,kubernetes,grpc,java,kotlin,aws,firebase,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>(주)슈프리마</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>[슈프리마HQ] 펌웨어 개발자 모집</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290886</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>(주)더블티</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>(주)더블티 2025년 상반기 채용 - AI 개발자</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288014</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>(주)더블티</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>(주)더블티 2025년 상반기 채용 - 풀스택 개발자 (기획가능)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288015</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>react,vue,angular,express,fastify,aws,gcp</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>슈퍼센트(주)</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>플랫폼 개발자 (3년 이상)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289711</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>firebase,jenkins</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>(주)이스트소프트</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>[ESTsecurity] 알약 xLLM 제품 개발 (경력)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289502</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>go,java,python,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>오직(주)</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>웹 퍼블리셔(3년 이상)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290446</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>오직(주)</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Vue.js 프론트엔드 개발자(3년 이상)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290445</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>vue,javascript,php,java,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>슈퍼센트(주)</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>게임 클라이언트 개발자 (인턴)</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289152</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>unity</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>누리미디어(주)</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>[개발운영] 네이티브 앱 개발자 (경력)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289871</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>java,flutter,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>(주)토르드라이브</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Simulation Software Engineer (전문연구요원 가능)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289556</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>docker,docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>세이지(주)</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>프론트엔드 개발자: Frontend Engineer (Senior)</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291158</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>javascript,typescript,react,storybook,webpack,rollup,vite</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>(주)엠지데이터시스템</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>(공제디지털전담반) 손해공제보상 업무 개발_계약직 (사업장)</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290780</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>vue</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>(주)엠지데이터시스템</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>(공제디지털전담반) 공제 OCR/ 공제 EMM 업무 개발_계약직 (사업장)</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290779</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>vue</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>(주)엠지데이터시스템</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>(정보시스템 통합유지보수) 네트워크 운영 사업 프로젝트리더 (PL)_일반직 (사업장)</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290762</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>(주)케이아이엔엑스</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2025 KINX 채용연계형 인턴_네트워크 엔지니어</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290825</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>신입</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>(주)미리디</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>[미리캔버스] 시니어 백엔드 개발자</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291244</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>java,spring,postgresql,mongodb,dynamodb,redis,java,aws,datadog</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>(주)키다리스튜디오</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>프론트엔드 웹 개발자</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290472</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>react,typescript</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>(주)미리디</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>[미리캔버스] 웹 에디터 개발자</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1291128</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>javascript,typescript,react</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>(주)이씨에스텔레콤</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>컨택센터 솔루션 풀스택 개발(경력)</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290681</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>vue,react,java,mysql,spring,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>아이픽셀(주)</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>백엔드 개발자 채용(AI 동작인식 디지털헬스케어 플랫폼)</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1289044</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>emotion,python,mysql,postgresql,aws,gcp</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>메가존클라우드(주)</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Engineering</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288868</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>한국전자인증(주)</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>[신입] [서버 개발] CA/RA 신입 서버 개발자 모집</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290160</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>신입</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>mariadb</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>(주)슈프리마</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>[슈프리마] 얼굴인식 서버 풀스택 소프트웨어 개발자 모집</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290988</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>react,go,docker,postgresql,flutter,docker,aws,gcp,azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>(주)케이아이엔엑스</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2025 KINX 경력직 채용_사내시스템 Back-End 개발</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290832</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>python,django,flask</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>(주)아임웹</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Front-End Engineer</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288618</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>react,vue,angular,redux,zustand,vite,emotion,tailwindcss,cypress,playwright,recoil,jotai,php</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>슈퍼센트(주)</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>AI 기술 리서치 (전환형 인턴)</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290805</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>경력무관</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>javascript,python</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>(주)이지식스</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>MVL [TADA] DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1286923</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>kubernetes,aws,kubernetes,terraform,datadog,helm</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>(주)아키스케치</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Software Engineer, Backend</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1290062</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>spring,kotlin,java,python,room,kotlin,java</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>메가존클라우드(주)</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Ops Engineer(운영)</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1288844</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>kubernetes,aws,kubernetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>번개장터(주)</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>iOS Developer</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>https://www.jobplanet.co.kr/job/search?posting_ids%5B%5D=1287311</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>경력</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>swift,swiftui</t>
         </is>
       </c>
     </row>
